--- a/data/BaselineProvincialForecasts.xlsx
+++ b/data/BaselineProvincialForecasts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmak\Documents\GitHub\housing_stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B91B9F-E1E6-4075-BA22-BA53282D72CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1BF4CF-2E1D-47EB-9B94-FDF43CC057C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-525" yWindow="-10320" windowWidth="15390" windowHeight="9990" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RealGDP" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="204">
   <si>
     <t>AB</t>
   </si>
@@ -753,15 +753,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4736,34 +4736,34 @@
       <c r="A106" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="11">
+      <c r="B106" s="10">
         <v>275693.61641709442</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="10">
         <v>209992.39995673273</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="10">
         <v>56561.280758551933</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="10">
         <v>32070.281381248224</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="10">
         <v>31933.56643466973</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="10">
         <v>37994.668982475909</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106" s="10">
         <v>651595.20763304259</v>
       </c>
-      <c r="I106" s="11">
+      <c r="I106" s="10">
         <v>5381.0751832175856</v>
       </c>
-      <c r="J106" s="11">
+      <c r="J106" s="10">
         <v>343497.82582149591</v>
       </c>
-      <c r="K106" s="11">
+      <c r="K106" s="10">
         <v>71177.411342346881</v>
       </c>
     </row>
@@ -4771,34 +4771,34 @@
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="11">
+      <c r="B107" s="10">
         <v>280026.59318940976</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="10">
         <v>210756.26823826635</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="10">
         <v>56530.714708085325</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="10">
         <v>32003.997493285129</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="10">
         <v>32431.548140397885</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="10">
         <v>37975.185257786128</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H107" s="10">
         <v>653456.74829104741</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I107" s="10">
         <v>5392.1784482992853</v>
       </c>
-      <c r="J107" s="11">
+      <c r="J107" s="10">
         <v>343808.24334431882</v>
       </c>
-      <c r="K107" s="11">
+      <c r="K107" s="10">
         <v>72241.47560979519</v>
       </c>
     </row>
@@ -4806,34 +4806,34 @@
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="11">
+      <c r="B108" s="10">
         <v>284693.44500497699</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="10">
         <v>212011.97800093712</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="10">
         <v>56680.93271127536</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="10">
         <v>31999.822513209183</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108" s="10">
         <v>32868.054553864124</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="10">
         <v>38021.747365097042</v>
       </c>
-      <c r="H108" s="11">
+      <c r="H108" s="10">
         <v>656668.2437156447</v>
       </c>
-      <c r="I108" s="11">
+      <c r="I108" s="10">
         <v>5414.5580513909499</v>
       </c>
-      <c r="J108" s="11">
+      <c r="J108" s="10">
         <v>344900.29510427325</v>
       </c>
-      <c r="K108" s="11">
+      <c r="K108" s="10">
         <v>73338.334027442339</v>
       </c>
     </row>
@@ -4841,34 +4841,34 @@
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="11">
+      <c r="B109" s="10">
         <v>290369.38450034068</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="10">
         <v>214237.81791587739</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D109" s="10">
         <v>57137.602818824249</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E109" s="10">
         <v>32127.977677554503</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="10">
         <v>33320.48559252164</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109" s="10">
         <v>38218.371839371328</v>
       </c>
-      <c r="H109" s="11">
+      <c r="H109" s="10">
         <v>662704.89565400837</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I109" s="10">
         <v>5460.3340024751496</v>
       </c>
-      <c r="J109" s="11">
+      <c r="J109" s="10">
         <v>347542.18324479455</v>
       </c>
-      <c r="K109" s="11">
+      <c r="K109" s="10">
         <v>74641.095646929636</v>
       </c>
     </row>
@@ -4876,34 +4876,34 @@
       <c r="A110" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="11">
+      <c r="B110" s="10">
         <v>294868.14216571936</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="10">
         <v>215806.51628559144</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="10">
         <v>57465.730979411426</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="10">
         <v>32142.946584134312</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="10">
         <v>33536.541353078566</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110" s="10">
         <v>38273.321045625737</v>
       </c>
-      <c r="H110" s="11">
+      <c r="H110" s="10">
         <v>666526.93742619199</v>
       </c>
-      <c r="I110" s="11">
+      <c r="I110" s="10">
         <v>5487.9526576461049</v>
       </c>
-      <c r="J110" s="11">
+      <c r="J110" s="10">
         <v>349087.10613308434</v>
       </c>
-      <c r="K110" s="11">
+      <c r="K110" s="10">
         <v>75586.646913558725</v>
       </c>
     </row>
@@ -4911,34 +4911,34 @@
       <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="11">
+      <c r="B111" s="10">
         <v>297554.72878002981</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="10">
         <v>216270.18690450344</v>
       </c>
-      <c r="D111" s="11">
+      <c r="D111" s="10">
         <v>57546.834305551209</v>
       </c>
-      <c r="E111" s="11">
+      <c r="E111" s="10">
         <v>31980.264468761703</v>
       </c>
-      <c r="F111" s="11">
+      <c r="F111" s="10">
         <v>33447.250502665389</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="10">
         <v>38109.479081112549</v>
       </c>
-      <c r="H111" s="11">
+      <c r="H111" s="10">
         <v>666761.85271618515</v>
       </c>
-      <c r="I111" s="11">
+      <c r="I111" s="10">
         <v>5486.1518157034989</v>
       </c>
-      <c r="J111" s="11">
+      <c r="J111" s="10">
         <v>348820.66308050504</v>
       </c>
-      <c r="K111" s="11">
+      <c r="K111" s="10">
         <v>76014.453193991401</v>
       </c>
     </row>
@@ -4946,34 +4946,34 @@
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="11">
+      <c r="B112" s="10">
         <v>303609.91324385913</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="10">
         <v>219390.14366349977</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="10">
         <v>58381.738540899467</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="10">
         <v>32195.350099966963</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="10">
         <v>33633.459376170278</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112" s="10">
         <v>38388.791518975944</v>
       </c>
-      <c r="H112" s="11">
+      <c r="H112" s="10">
         <v>675001.51641007594</v>
       </c>
-      <c r="I112" s="11">
+      <c r="I112" s="10">
         <v>5550.2983861446346</v>
       </c>
-      <c r="J112" s="11">
+      <c r="J112" s="10">
         <v>352806.14403467602</v>
       </c>
-      <c r="K112" s="11">
+      <c r="K112" s="10">
         <v>77247.048333447136</v>
       </c>
     </row>
@@ -4981,34 +4981,34 @@
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="11">
+      <c r="B113" s="10">
         <v>307781.58948432835</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C113" s="10">
         <v>221346.88717662572</v>
       </c>
-      <c r="D113" s="11">
+      <c r="D113" s="10">
         <v>58954.390488409568</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113" s="10">
         <v>32222.696082950533</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113" s="10">
         <v>33502.968109855006</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113" s="10">
         <v>38437.388468472775</v>
       </c>
-      <c r="H113" s="11">
+      <c r="H113" s="10">
         <v>679465.86589120666</v>
       </c>
-      <c r="I113" s="11">
+      <c r="I113" s="10">
         <v>5583.4565245828808</v>
       </c>
-      <c r="J113" s="11">
+      <c r="J113" s="10">
         <v>354880.2547673643</v>
       </c>
-      <c r="K113" s="11">
+      <c r="K113" s="10">
         <v>77941.602272721226</v>
       </c>
     </row>
@@ -5016,34 +5016,34 @@
       <c r="A114" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B114" s="11">
+      <c r="B114" s="10">
         <v>308521.26598691865</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="10">
         <v>222274.68779032794</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="10">
         <v>59415.762868241669</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="10">
         <v>32005.525323052501</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="10">
         <v>32244.402491653971</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="10">
         <v>38178.970878351342</v>
       </c>
-      <c r="H114" s="11">
+      <c r="H114" s="10">
         <v>679960.14316282584</v>
       </c>
-      <c r="I114" s="11">
+      <c r="I114" s="10">
         <v>5578.9974469603158</v>
       </c>
-      <c r="J114" s="11">
+      <c r="J114" s="10">
         <v>355020.78507087688</v>
       </c>
-      <c r="K114" s="11">
+      <c r="K114" s="10">
         <v>77216.582053348699</v>
       </c>
     </row>
@@ -5051,34 +5051,34 @@
       <c r="A115" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B115" s="11">
+      <c r="B115" s="10">
         <v>311396.48118511285</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C115" s="10">
         <v>223224.05428684806</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D115" s="10">
         <v>59768.008829187856</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115" s="10">
         <v>31889.289329779687</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="10">
         <v>32026.892488723297</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115" s="10">
         <v>38045.472359440624</v>
       </c>
-      <c r="H115" s="11">
+      <c r="H115" s="10">
         <v>681220.05300428113</v>
       </c>
-      <c r="I115" s="11">
+      <c r="I115" s="10">
         <v>5588.0414187073247</v>
       </c>
-      <c r="J115" s="11">
+      <c r="J115" s="10">
         <v>355521.01866451284</v>
       </c>
-      <c r="K115" s="11">
+      <c r="K115" s="10">
         <v>77669.262035715001</v>
       </c>
     </row>
@@ -5086,34 +5086,34 @@
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="11">
+      <c r="B116" s="10">
         <v>313936.96048216888</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="10">
         <v>223658.13323270419</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D116" s="10">
         <v>59982.830296154716</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="10">
         <v>31717.888427875539</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="10">
         <v>31935.246242777015</v>
       </c>
-      <c r="G116" s="11">
+      <c r="G116" s="10">
         <v>37842.38566374909</v>
       </c>
-      <c r="H116" s="11">
+      <c r="H116" s="10">
         <v>680983.03271519253</v>
       </c>
-      <c r="I116" s="11">
+      <c r="I116" s="10">
         <v>5586.9228325005697</v>
       </c>
-      <c r="J116" s="11">
+      <c r="J116" s="10">
         <v>355275.51461127726</v>
       </c>
-      <c r="K116" s="11">
+      <c r="K116" s="10">
         <v>78181.96764457156</v>
       </c>
     </row>
@@ -5121,34 +5121,34 @@
       <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="11">
+      <c r="B117" s="10">
         <v>316946.06984570064</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C117" s="10">
         <v>224157.30443330825</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D117" s="10">
         <v>60215.466086603272</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="10">
         <v>31574.438931676043</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="10">
         <v>32051.273080893934</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="10">
         <v>37668.902504619618</v>
       </c>
-      <c r="H117" s="11">
+      <c r="H117" s="10">
         <v>681022.02142203308</v>
       </c>
-      <c r="I117" s="11">
+      <c r="I117" s="10">
         <v>5590.1658170620985</v>
       </c>
-      <c r="J117" s="11">
+      <c r="J117" s="10">
         <v>355209.43657926825</v>
       </c>
-      <c r="K117" s="11">
+      <c r="K117" s="10">
         <v>78954.043536488956</v>
       </c>
     </row>
@@ -5156,34 +5156,34 @@
       <c r="A118" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="11">
+      <c r="B118" s="10">
         <v>323101.50252733997</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="10">
         <v>225561.40980871904</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="10">
         <v>60910.435397746231</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="10">
         <v>31674.067915152864</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="10">
         <v>33389.416245184613</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="10">
         <v>37718.130954699591</v>
       </c>
-      <c r="H118" s="11">
+      <c r="H118" s="10">
         <v>684437.24443354737</v>
       </c>
-      <c r="I118" s="11">
+      <c r="I118" s="10">
         <v>5652.8864895320285</v>
       </c>
-      <c r="J118" s="11">
+      <c r="J118" s="10">
         <v>357509.0012205129</v>
       </c>
-      <c r="K118" s="11">
+      <c r="K118" s="10">
         <v>81606.629700837075</v>
       </c>
     </row>
@@ -5191,34 +5191,34 @@
       <c r="A119" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="11">
+      <c r="B119" s="10">
         <v>327554.4117736445</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="10">
         <v>226945.95483037282</v>
       </c>
-      <c r="D119" s="11">
+      <c r="D119" s="10">
         <v>61295.624256799252</v>
       </c>
-      <c r="E119" s="11">
+      <c r="E119" s="10">
         <v>31650.337693864778</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="10">
         <v>33669.581171905003</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="10">
         <v>37705.416810393501</v>
       </c>
-      <c r="H119" s="11">
+      <c r="H119" s="10">
         <v>687077.25696824619</v>
       </c>
-      <c r="I119" s="11">
+      <c r="I119" s="10">
         <v>5669.8270744304327</v>
       </c>
-      <c r="J119" s="11">
+      <c r="J119" s="10">
         <v>358640.89219562762</v>
       </c>
-      <c r="K119" s="11">
+      <c r="K119" s="10">
         <v>82640.727158301059</v>
       </c>
     </row>
@@ -5226,34 +5226,34 @@
       <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="11">
+      <c r="B120" s="10">
         <v>332770.88039484364</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="10">
         <v>228998.75624750214</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="10">
         <v>61774.666671976571</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="10">
         <v>31697.518970133864</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F120" s="10">
         <v>33887.633785161284</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120" s="10">
         <v>37798.914641266878</v>
       </c>
-      <c r="H120" s="11">
+      <c r="H120" s="10">
         <v>691583.46197297692</v>
       </c>
-      <c r="I120" s="11">
+      <c r="I120" s="10">
         <v>5692.3738575698435</v>
       </c>
-      <c r="J120" s="11">
+      <c r="J120" s="10">
         <v>360552.80676719663</v>
       </c>
-      <c r="K120" s="11">
+      <c r="K120" s="10">
         <v>83627.135883626426</v>
       </c>
     </row>
@@ -5261,34 +5261,34 @@
       <c r="A121" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="11">
+      <c r="B121" s="10">
         <v>338786.44780395943</v>
       </c>
-      <c r="C121" s="11">
+      <c r="C121" s="10">
         <v>231735.74432092308</v>
       </c>
-      <c r="D121" s="11">
+      <c r="D121" s="10">
         <v>62350.971945421566</v>
       </c>
-      <c r="E121" s="11">
+      <c r="E121" s="10">
         <v>31816.281023812375</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F121" s="10">
         <v>34044.598891582202</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="10">
         <v>37999.756482791934</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H121" s="10">
         <v>697993.00661777286</v>
       </c>
-      <c r="I121" s="11">
+      <c r="I121" s="10">
         <v>5720.6955843077603</v>
       </c>
-      <c r="J121" s="11">
+      <c r="J121" s="10">
         <v>363260.50048073079</v>
       </c>
-      <c r="K121" s="11">
+      <c r="K121" s="10">
         <v>84571.618735195778</v>
       </c>
     </row>
@@ -5296,34 +5296,34 @@
       <c r="A122" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="11">
+      <c r="B122" s="10">
         <v>345645.38477802323</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="10">
         <v>232661.71426066363</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="10">
         <v>62067.855319201997</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="10">
         <v>31510.477788643529</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F122" s="10">
         <v>33294.718491411448</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122" s="10">
         <v>37817.387140891551</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122" s="10">
         <v>696753.74308721197</v>
       </c>
-      <c r="I122" s="11">
+      <c r="I122" s="10">
         <v>5641.0839283800015</v>
       </c>
-      <c r="J122" s="11">
+      <c r="J122" s="10">
         <v>361705.75613139174</v>
       </c>
-      <c r="K122" s="11">
+      <c r="K122" s="10">
         <v>84008.385376496764</v>
       </c>
     </row>
@@ -5331,34 +5331,34 @@
       <c r="A123" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B123" s="11">
+      <c r="B123" s="10">
         <v>349666.27542759536</v>
       </c>
-      <c r="C123" s="11">
+      <c r="C123" s="10">
         <v>235327.75310420693</v>
       </c>
-      <c r="D123" s="11">
+      <c r="D123" s="10">
         <v>62566.520725772076</v>
       </c>
-      <c r="E123" s="11">
+      <c r="E123" s="10">
         <v>31638.381362940596</v>
       </c>
-      <c r="F123" s="11">
+      <c r="F123" s="10">
         <v>33311.132003099294</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123" s="10">
         <v>38031.681241506063</v>
       </c>
-      <c r="H123" s="11">
+      <c r="H123" s="10">
         <v>703462.83666838286</v>
       </c>
-      <c r="I123" s="11">
+      <c r="I123" s="10">
         <v>5666.5413473669832</v>
       </c>
-      <c r="J123" s="11">
+      <c r="J123" s="10">
         <v>364220.45564395096</v>
       </c>
-      <c r="K123" s="11">
+      <c r="K123" s="10">
         <v>84565.231279632222</v>
       </c>
     </row>
@@ -5366,34 +5366,34 @@
       <c r="A124" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="11">
+      <c r="B124" s="10">
         <v>352319.16065877432</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="10">
         <v>238217.16222813632</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="10">
         <v>63151.250059949125</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="10">
         <v>31835.058536898567</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="10">
         <v>33387.900353564139</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124" s="10">
         <v>38309.414910682412</v>
       </c>
-      <c r="H124" s="11">
+      <c r="H124" s="10">
         <v>711500.56704504055</v>
       </c>
-      <c r="I124" s="11">
+      <c r="I124" s="10">
         <v>5707.0672492182875</v>
       </c>
-      <c r="J124" s="11">
+      <c r="J124" s="10">
         <v>367259.00951696082</v>
       </c>
-      <c r="K124" s="11">
+      <c r="K124" s="10">
         <v>85129.620965552793</v>
       </c>
     </row>
@@ -5401,34 +5401,34 @@
       <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B125" s="11">
+      <c r="B125" s="10">
         <v>352485.47145108116</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C125" s="10">
         <v>240590.6832947685</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D125" s="10">
         <v>63625.992447715362</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="10">
         <v>32001.776063847188</v>
       </c>
-      <c r="F125" s="11">
+      <c r="F125" s="10">
         <v>33421.029348179793</v>
       </c>
-      <c r="G125" s="11">
+      <c r="G125" s="10">
         <v>38531.624340035669</v>
       </c>
-      <c r="H125" s="11">
+      <c r="H125" s="10">
         <v>718665.96499350271</v>
       </c>
-      <c r="I125" s="11">
+      <c r="I125" s="10">
         <v>5745.0084749493044</v>
       </c>
-      <c r="J125" s="11">
+      <c r="J125" s="10">
         <v>369680.74382007791</v>
       </c>
-      <c r="K125" s="11">
+      <c r="K125" s="10">
         <v>85435.386913261944</v>
       </c>
     </row>
@@ -5436,34 +5436,34 @@
       <c r="A126" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B126" s="11">
+      <c r="B126" s="10">
         <v>342783.15387003362</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="10">
         <v>240142.39472511306</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="10">
         <v>63510.639720480875</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E126" s="10">
         <v>31966.941953870639</v>
       </c>
-      <c r="F126" s="11">
+      <c r="F126" s="10">
         <v>33074.9251447243</v>
       </c>
-      <c r="G126" s="11">
+      <c r="G126" s="10">
         <v>38396.385407908499</v>
       </c>
-      <c r="H126" s="11">
+      <c r="H126" s="10">
         <v>720997.28801430413</v>
       </c>
-      <c r="I126" s="11">
+      <c r="I126" s="10">
         <v>5750.8797655749722</v>
       </c>
-      <c r="J126" s="11">
+      <c r="J126" s="10">
         <v>368481.30460358807</v>
       </c>
-      <c r="K126" s="11">
+      <c r="K126" s="10">
         <v>84499.3760178589</v>
       </c>
     </row>
@@ -5471,34 +5471,34 @@
       <c r="A127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="11">
+      <c r="B127" s="10">
         <v>338061.74952001922</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="10">
         <v>240366.88160719385</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="10">
         <v>63422.813036237683</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E127" s="10">
         <v>31875.692659343738</v>
       </c>
-      <c r="F127" s="11">
+      <c r="F127" s="10">
         <v>32881.62933945925</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G127" s="10">
         <v>38306.754006464769</v>
       </c>
-      <c r="H127" s="11">
+      <c r="H127" s="10">
         <v>721899.85867441981</v>
       </c>
-      <c r="I127" s="11">
+      <c r="I127" s="10">
         <v>5747.3002431018185</v>
       </c>
-      <c r="J127" s="11">
+      <c r="J127" s="10">
         <v>367776.60356970981</v>
       </c>
-      <c r="K127" s="11">
+      <c r="K127" s="10">
         <v>83975.212125868697</v>
       </c>
     </row>
@@ -5506,34 +5506,34 @@
       <c r="A128" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B128" s="11">
+      <c r="B128" s="10">
         <v>335479.36976303952</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="10">
         <v>242163.84731637375</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="10">
         <v>63727.489420434438</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="10">
         <v>31980.522390451413</v>
       </c>
-      <c r="F128" s="11">
+      <c r="F128" s="10">
         <v>32942.930470690306</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G128" s="10">
         <v>38470.855238083626</v>
       </c>
-      <c r="H128" s="11">
+      <c r="H128" s="10">
         <v>727026.55684430175</v>
       </c>
-      <c r="I128" s="11">
+      <c r="I128" s="10">
         <v>5781.198275099543</v>
       </c>
-      <c r="J128" s="11">
+      <c r="J128" s="10">
         <v>369461.51846596645</v>
       </c>
-      <c r="K128" s="11">
+      <c r="K128" s="10">
         <v>84000.432198773982</v>
       </c>
     </row>
@@ -5541,34 +5541,34 @@
       <c r="A129" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B129" s="11">
+      <c r="B129" s="10">
         <v>331975.64824667177</v>
       </c>
-      <c r="C129" s="11">
+      <c r="C129" s="10">
         <v>243357.26037169492</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="10">
         <v>63850.600754000858</v>
       </c>
-      <c r="E129" s="11">
+      <c r="E129" s="10">
         <v>31992.913275163912</v>
       </c>
-      <c r="F129" s="11">
+      <c r="F129" s="10">
         <v>32960.960242593654</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129" s="10">
         <v>38541.879246564189</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H129" s="10">
         <v>729844.35591217119</v>
       </c>
-      <c r="I129" s="11">
+      <c r="I129" s="10">
         <v>5800.5439186787798</v>
       </c>
-      <c r="J129" s="11">
+      <c r="J129" s="10">
         <v>370206.60800537292</v>
       </c>
-      <c r="K129" s="11">
+      <c r="K129" s="10">
         <v>83814.783191240203</v>
       </c>
     </row>
@@ -5576,34 +5576,34 @@
       <c r="A130" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B130" s="11">
+      <c r="B130" s="10">
         <v>327017.06927694374</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="10">
         <v>246312.42515919375</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="10">
         <v>64278.676030138711</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E130" s="10">
         <v>32162.55785824476</v>
       </c>
-      <c r="F130" s="11">
+      <c r="F130" s="10">
         <v>33412.099202745943</v>
       </c>
-      <c r="G130" s="11">
+      <c r="G130" s="10">
         <v>38951.537952069171</v>
       </c>
-      <c r="H130" s="11">
+      <c r="H130" s="10">
         <v>736584.16401891934</v>
       </c>
-      <c r="I130" s="11">
+      <c r="I130" s="10">
         <v>5847.6351002270185</v>
       </c>
-      <c r="J130" s="11">
+      <c r="J130" s="10">
         <v>373454.90431592782</v>
       </c>
-      <c r="K130" s="11">
+      <c r="K130" s="10">
         <v>84023.952077840237</v>
       </c>
     </row>
@@ -5611,34 +5611,34 @@
       <c r="A131" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B131" s="11">
+      <c r="B131" s="10">
         <v>322918.921888471</v>
       </c>
-      <c r="C131" s="11">
+      <c r="C131" s="10">
         <v>246026.04770449686</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D131" s="10">
         <v>64025.261269995128</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E131" s="10">
         <v>31981.897772994675</v>
       </c>
-      <c r="F131" s="11">
+      <c r="F131" s="10">
         <v>33245.615639117532</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G131" s="10">
         <v>38772.242756580446</v>
       </c>
-      <c r="H131" s="11">
+      <c r="H131" s="10">
         <v>734336.44827077445</v>
       </c>
-      <c r="I131" s="11">
+      <c r="I131" s="10">
         <v>5837.2529878686346</v>
       </c>
-      <c r="J131" s="11">
+      <c r="J131" s="10">
         <v>371988.57089029282</v>
       </c>
-      <c r="K131" s="11">
+      <c r="K131" s="10">
         <v>83418.443741073468</v>
       </c>
     </row>
@@ -5646,34 +5646,34 @@
       <c r="A132" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="11">
+      <c r="B132" s="10">
         <v>324982.26866038551</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C132" s="10">
         <v>249340.95976271757</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="10">
         <v>64740.618391987329</v>
       </c>
-      <c r="E132" s="11">
+      <c r="E132" s="10">
         <v>32281.75586015873</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F132" s="10">
         <v>33543.078056807572</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G132" s="10">
         <v>39141.137278039212</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H132" s="10">
         <v>742689.91723542695</v>
       </c>
-      <c r="I132" s="11">
+      <c r="I132" s="10">
         <v>5917.8143103022694</v>
       </c>
-      <c r="J132" s="11">
+      <c r="J132" s="10">
         <v>376015.22465242451</v>
       </c>
-      <c r="K132" s="11">
+      <c r="K132" s="10">
         <v>84118.414673866268</v>
       </c>
     </row>
@@ -5681,34 +5681,34 @@
       <c r="A133" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="11">
+      <c r="B133" s="10">
         <v>326775.57750285685</v>
       </c>
-      <c r="C133" s="11">
+      <c r="C133" s="10">
         <v>251365.32168048999</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="10">
         <v>65151.264305821249</v>
       </c>
-      <c r="E133" s="11">
+      <c r="E133" s="10">
         <v>32425.89504796511</v>
       </c>
-      <c r="F133" s="11">
+      <c r="F133" s="10">
         <v>33643.227713755456</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G133" s="10">
         <v>39287.054178915896</v>
       </c>
-      <c r="H133" s="11">
+      <c r="H133" s="10">
         <v>747040.82261596539</v>
       </c>
-      <c r="I133" s="11">
+      <c r="I133" s="10">
         <v>5973.2355971169527</v>
       </c>
-      <c r="J133" s="11">
+      <c r="J133" s="10">
         <v>378136.18568189524</v>
       </c>
-      <c r="K133" s="11">
+      <c r="K133" s="10">
         <v>84463.976134415643</v>
       </c>
     </row>
@@ -5716,34 +5716,34 @@
       <c r="A134" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B134" s="11">
+      <c r="B134" s="10">
         <v>335613.77548437438</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="10">
         <v>254171.15537065759</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="10">
         <v>65984.225948507141</v>
       </c>
-      <c r="E134" s="11">
+      <c r="E134" s="10">
         <v>32771.59567122782</v>
       </c>
-      <c r="F134" s="11">
+      <c r="F134" s="10">
         <v>33977.161079920304</v>
       </c>
-      <c r="G134" s="11">
+      <c r="G134" s="10">
         <v>39475.221703702264</v>
       </c>
-      <c r="H134" s="11">
+      <c r="H134" s="10">
         <v>752254.35005866701</v>
       </c>
-      <c r="I134" s="11">
+      <c r="I134" s="10">
         <v>6091.6577108018273</v>
       </c>
-      <c r="J134" s="11">
+      <c r="J134" s="10">
         <v>381431.29102878389</v>
       </c>
-      <c r="K134" s="11">
+      <c r="K134" s="10">
         <v>85445.049780309375</v>
       </c>
     </row>
@@ -5751,34 +5751,34 @@
       <c r="A135" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B135" s="11">
+      <c r="B135" s="10">
         <v>339799.03147749125</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C135" s="10">
         <v>257251.56244316429</v>
       </c>
-      <c r="D135" s="11">
+      <c r="D135" s="10">
         <v>66655.411663956911</v>
       </c>
-      <c r="E135" s="11">
+      <c r="E135" s="10">
         <v>33040.256484158126</v>
       </c>
-      <c r="F135" s="11">
+      <c r="F135" s="10">
         <v>34111.282602230342</v>
       </c>
-      <c r="G135" s="11">
+      <c r="G135" s="10">
         <v>39770.093057325925</v>
       </c>
-      <c r="H135" s="11">
+      <c r="H135" s="10">
         <v>759955.38353026297</v>
       </c>
-      <c r="I135" s="11">
+      <c r="I135" s="10">
         <v>6167.6904265311614</v>
       </c>
-      <c r="J135" s="11">
+      <c r="J135" s="10">
         <v>385246.82881558704</v>
       </c>
-      <c r="K135" s="11">
+      <c r="K135" s="10">
         <v>86195.387376449697</v>
       </c>
     </row>
@@ -5786,34 +5786,34 @@
       <c r="A136" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B136" s="11">
+      <c r="B136" s="10">
         <v>341569.14530703402</v>
       </c>
-      <c r="C136" s="11">
+      <c r="C136" s="10">
         <v>258820.87564359247</v>
       </c>
-      <c r="D136" s="11">
+      <c r="D136" s="10">
         <v>66890.761488391989</v>
       </c>
-      <c r="E136" s="11">
+      <c r="E136" s="10">
         <v>33091.422692178989</v>
       </c>
-      <c r="F136" s="11">
+      <c r="F136" s="10">
         <v>33961.353487983535</v>
       </c>
-      <c r="G136" s="11">
+      <c r="G136" s="10">
         <v>39835.932483339369</v>
       </c>
-      <c r="H136" s="11">
+      <c r="H136" s="10">
         <v>763566.02628406102</v>
       </c>
-      <c r="I136" s="11">
+      <c r="I136" s="10">
         <v>6197.3899884265929</v>
       </c>
-      <c r="J136" s="11">
+      <c r="J136" s="10">
         <v>386863.99819066422</v>
       </c>
-      <c r="K136" s="11">
+      <c r="K136" s="10">
         <v>86406.690115639183</v>
       </c>
     </row>
@@ -5821,34 +5821,34 @@
       <c r="A137" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B137" s="11">
+      <c r="B137" s="10">
         <v>343265.40033887821</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C137" s="10">
         <v>260650.18024555643</v>
       </c>
-      <c r="D137" s="11">
+      <c r="D137" s="10">
         <v>67149.871621372149</v>
       </c>
-      <c r="E137" s="11">
+      <c r="E137" s="10">
         <v>33153.147342926299</v>
       </c>
-      <c r="F137" s="11">
+      <c r="F137" s="10">
         <v>33763.658552581845</v>
       </c>
-      <c r="G137" s="11">
+      <c r="G137" s="10">
         <v>39947.166051173997</v>
       </c>
-      <c r="H137" s="11">
+      <c r="H137" s="10">
         <v>768321.24750597565</v>
       </c>
-      <c r="I137" s="11">
+      <c r="I137" s="10">
         <v>6223.2665032050227</v>
       </c>
-      <c r="J137" s="11">
+      <c r="J137" s="10">
         <v>388937.58240250865</v>
       </c>
-      <c r="K137" s="11">
+      <c r="K137" s="10">
         <v>86673.569815939612</v>
       </c>
     </row>
@@ -5856,34 +5856,34 @@
       <c r="A138" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="11">
+      <c r="B138" s="10">
         <v>345562.47175587888</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="10">
         <v>263264.60990159103</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="10">
         <v>67581.854291193536</v>
       </c>
-      <c r="E138" s="11">
+      <c r="E138" s="10">
         <v>33204.201243288298</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F138" s="10">
         <v>33045.125633614305</v>
       </c>
-      <c r="G138" s="11">
+      <c r="G138" s="10">
         <v>40100.005644520163</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H138" s="10">
         <v>777765.97211469046</v>
       </c>
-      <c r="I138" s="11">
+      <c r="I138" s="10">
         <v>6199.7978932193573</v>
       </c>
-      <c r="J138" s="11">
+      <c r="J138" s="10">
         <v>392215.162858575</v>
       </c>
-      <c r="K138" s="11">
+      <c r="K138" s="10">
         <v>87425.888997690708</v>
       </c>
     </row>
@@ -5891,34 +5891,34 @@
       <c r="A139" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B139" s="11">
+      <c r="B139" s="10">
         <v>347483.22424871009</v>
       </c>
-      <c r="C139" s="11">
+      <c r="C139" s="10">
         <v>265898.45104875148</v>
       </c>
-      <c r="D139" s="11">
+      <c r="D139" s="10">
         <v>67953.125316993071</v>
       </c>
-      <c r="E139" s="11">
+      <c r="E139" s="10">
         <v>33355.765867876798</v>
       </c>
-      <c r="F139" s="11">
+      <c r="F139" s="10">
         <v>32998.207171575137</v>
       </c>
-      <c r="G139" s="11">
+      <c r="G139" s="10">
         <v>40376.563246810241</v>
       </c>
-      <c r="H139" s="11">
+      <c r="H139" s="10">
         <v>784840.27561479842</v>
       </c>
-      <c r="I139" s="11">
+      <c r="I139" s="10">
         <v>6247.7591659571026</v>
       </c>
-      <c r="J139" s="11">
+      <c r="J139" s="10">
         <v>395629.83585359104</v>
       </c>
-      <c r="K139" s="11">
+      <c r="K139" s="10">
         <v>87791.428275904647</v>
       </c>
     </row>
@@ -5926,34 +5926,34 @@
       <c r="A140" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B140" s="11">
+      <c r="B140" s="10">
         <v>348775.51507236419</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="10">
         <v>268371.73842186719</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D140" s="10">
         <v>68232.110571452911</v>
       </c>
-      <c r="E140" s="11">
+      <c r="E140" s="10">
         <v>33498.1104134692</v>
       </c>
-      <c r="F140" s="11">
+      <c r="F140" s="10">
         <v>33062.40553126538</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G140" s="10">
         <v>40666.321001883334</v>
       </c>
-      <c r="H140" s="11">
+      <c r="H140" s="10">
         <v>791010.21243280102</v>
       </c>
-      <c r="I140" s="11">
+      <c r="I140" s="10">
         <v>6305.0311180537165</v>
       </c>
-      <c r="J140" s="11">
+      <c r="J140" s="10">
         <v>398881.54523191013</v>
       </c>
-      <c r="K140" s="11">
+      <c r="K140" s="10">
         <v>87966.603238666197</v>
       </c>
     </row>
@@ -5961,34 +5961,34 @@
       <c r="A141" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B141" s="11">
+      <c r="B141" s="10">
         <v>348549.37466711306</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="10">
         <v>269994.46951903898</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D141" s="10">
         <v>68244.633200028751</v>
       </c>
-      <c r="E141" s="11">
+      <c r="E141" s="10">
         <v>33545.736946198027</v>
       </c>
-      <c r="F141" s="11">
+      <c r="F141" s="10">
         <v>33153.728381888599</v>
       </c>
-      <c r="G141" s="11">
+      <c r="G141" s="10">
         <v>40865.073202286134</v>
       </c>
-      <c r="H141" s="11">
+      <c r="H141" s="10">
         <v>794245.80630680698</v>
       </c>
-      <c r="I141" s="11">
+      <c r="I141" s="10">
         <v>6355.4181535384132</v>
       </c>
-      <c r="J141" s="11">
+      <c r="J141" s="10">
         <v>400946.38456627011</v>
       </c>
-      <c r="K141" s="11">
+      <c r="K141" s="10">
         <v>87727.480712969322</v>
       </c>
     </row>
@@ -5996,34 +5996,34 @@
       <c r="A142" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B142" s="11">
+      <c r="B142" s="10">
         <v>346706.98504974501</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="10">
         <v>270899.639866438</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D142" s="10">
         <v>67753.840221474777</v>
       </c>
-      <c r="E142" s="11">
+      <c r="E142" s="10">
         <v>33445.593509305443</v>
       </c>
-      <c r="F142" s="11">
+      <c r="F142" s="10">
         <v>33735.99009156417</v>
       </c>
-      <c r="G142" s="11">
+      <c r="G142" s="10">
         <v>41024.8426073597</v>
       </c>
-      <c r="H142" s="11">
+      <c r="H142" s="10">
         <v>794810.02170088585</v>
       </c>
-      <c r="I142" s="11">
+      <c r="I142" s="10">
         <v>6433.3490536813051</v>
       </c>
-      <c r="J142" s="11">
+      <c r="J142" s="10">
         <v>403376.38495279773</v>
       </c>
-      <c r="K142" s="11">
+      <c r="K142" s="10">
         <v>86427.607074266329</v>
       </c>
     </row>
@@ -6031,34 +6031,34 @@
       <c r="A143" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B143" s="11">
+      <c r="B143" s="10">
         <v>348289.96586496016</v>
       </c>
-      <c r="C143" s="11">
+      <c r="C143" s="10">
         <v>274477.55462185963</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="10">
         <v>68267.490604631035</v>
       </c>
-      <c r="E143" s="11">
+      <c r="E143" s="10">
         <v>33786.60042289889</v>
       </c>
-      <c r="F143" s="11">
+      <c r="F143" s="10">
         <v>34154.313854242224</v>
       </c>
-      <c r="G143" s="11">
+      <c r="G143" s="10">
         <v>41582.579480324814</v>
       </c>
-      <c r="H143" s="11">
+      <c r="H143" s="10">
         <v>802997.0451519253</v>
       </c>
-      <c r="I143" s="11">
+      <c r="I143" s="10">
         <v>6543.537837307631</v>
       </c>
-      <c r="J143" s="11">
+      <c r="J143" s="10">
         <v>407965.465117404</v>
       </c>
-      <c r="K143" s="11">
+      <c r="K143" s="10">
         <v>86826.236734303573</v>
       </c>
     </row>
@@ -6066,34 +6066,34 @@
       <c r="A144" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B144" s="11">
+      <c r="B144" s="10">
         <v>347410.18862227467</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="10">
         <v>276400.66544261103</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D144" s="10">
         <v>68421.107847041669</v>
       </c>
-      <c r="E144" s="11">
+      <c r="E144" s="10">
         <v>33961.625630347</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F144" s="10">
         <v>34318.182491589578</v>
       </c>
-      <c r="G144" s="11">
+      <c r="G144" s="10">
         <v>41915.135406614456</v>
       </c>
-      <c r="H144" s="11">
+      <c r="H144" s="10">
         <v>805921.36959838041</v>
       </c>
-      <c r="I144" s="11">
+      <c r="I144" s="10">
         <v>6615.2850666798977</v>
       </c>
-      <c r="J144" s="11">
+      <c r="J144" s="10">
         <v>409611.85128042143</v>
       </c>
-      <c r="K144" s="11">
+      <c r="K144" s="10">
         <v>86829.637287780657</v>
       </c>
     </row>
@@ -6101,34 +6101,34 @@
       <c r="A145" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B145" s="11">
+      <c r="B145" s="10">
         <v>346242.25558843126</v>
       </c>
-      <c r="C145" s="11">
+      <c r="C145" s="10">
         <v>278406.85121280316</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="10">
         <v>68646.486620482494</v>
       </c>
-      <c r="E145" s="11">
+      <c r="E145" s="10">
         <v>34185.324436536634</v>
       </c>
-      <c r="F145" s="11">
+      <c r="F145" s="10">
         <v>34441.971540295606</v>
       </c>
-      <c r="G145" s="11">
+      <c r="G145" s="10">
         <v>42286.789463796653</v>
       </c>
-      <c r="H145" s="11">
+      <c r="H145" s="10">
         <v>808638.62565624644</v>
       </c>
-      <c r="I145" s="11">
+      <c r="I145" s="10">
         <v>6690.2072972710766</v>
       </c>
-      <c r="J145" s="11">
+      <c r="J145" s="10">
         <v>410877.16812435188</v>
       </c>
-      <c r="K145" s="11">
+      <c r="K145" s="10">
         <v>86987.666738578409</v>
       </c>
     </row>
@@ -6136,34 +6136,34 @@
       <c r="A146" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B146" s="11">
+      <c r="B146" s="10">
         <v>333102.29134731559</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="10">
         <v>275043.97618156963</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="10">
         <v>67704.107495096949</v>
       </c>
-      <c r="E146" s="11">
+      <c r="E146" s="10">
         <v>33918.719694610591</v>
       </c>
-      <c r="F146" s="11">
+      <c r="F146" s="10">
         <v>33629.149938705035</v>
       </c>
-      <c r="G146" s="11">
+      <c r="G146" s="10">
         <v>41982.912880561191</v>
       </c>
-      <c r="H146" s="11">
+      <c r="H146" s="10">
         <v>791390.47037352563</v>
       </c>
-      <c r="I146" s="11">
+      <c r="I146" s="10">
         <v>6657.2096738538921</v>
       </c>
-      <c r="J146" s="11">
+      <c r="J146" s="10">
         <v>400912.45426436444</v>
       </c>
-      <c r="K146" s="11">
+      <c r="K146" s="10">
         <v>85726.290831271166</v>
       </c>
     </row>
@@ -6171,34 +6171,34 @@
       <c r="A147" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B147" s="11">
+      <c r="B147" s="10">
         <v>295083.45730376267</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="10">
         <v>245558.03636876895</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D147" s="10">
         <v>60261.379477339491</v>
       </c>
-      <c r="E147" s="11">
+      <c r="E147" s="10">
         <v>30287.939439642832</v>
       </c>
-      <c r="F147" s="11">
+      <c r="F147" s="10">
         <v>29895.636067932734</v>
       </c>
-      <c r="G147" s="11">
+      <c r="G147" s="10">
         <v>37552.17403150061</v>
       </c>
-      <c r="H147" s="11">
+      <c r="H147" s="10">
         <v>704286.52590657421</v>
       </c>
-      <c r="I147" s="11">
+      <c r="I147" s="10">
         <v>5962.8388201532525</v>
       </c>
-      <c r="J147" s="11">
+      <c r="J147" s="10">
         <v>356447.68112663348</v>
       </c>
-      <c r="K147" s="11">
+      <c r="K147" s="10">
         <v>76307.606581385815</v>
       </c>
     </row>
@@ -6206,34 +6206,34 @@
       <c r="A148" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B148" s="11">
+      <c r="B148" s="10">
         <v>321366.7241912132</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C148" s="10">
         <v>268199.98713655618</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="10">
         <v>65631.589463015596</v>
       </c>
-      <c r="E148" s="11">
+      <c r="E148" s="10">
         <v>33074.73679400597</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F148" s="10">
         <v>32550.349883189447</v>
       </c>
-      <c r="G148" s="11">
+      <c r="G148" s="10">
         <v>41072.312154863583</v>
       </c>
-      <c r="H148" s="11">
+      <c r="H148" s="10">
         <v>767895.93931106082</v>
       </c>
-      <c r="I148" s="11">
+      <c r="I148" s="10">
         <v>6526.6435653402177</v>
       </c>
-      <c r="J148" s="11">
+      <c r="J148" s="10">
         <v>388312.44448712381</v>
       </c>
-      <c r="K148" s="11">
+      <c r="K148" s="10">
         <v>83181.938871065489</v>
       </c>
     </row>
@@ -6241,34 +6241,34 @@
       <c r="A149" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B149" s="11">
+      <c r="B149" s="10">
         <v>329333.2265793496</v>
       </c>
-      <c r="C149" s="11">
+      <c r="C149" s="10">
         <v>274268.55238831817</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="10">
         <v>66944.555493029402</v>
       </c>
-      <c r="E149" s="11">
+      <c r="E149" s="10">
         <v>33805.012318859459</v>
       </c>
-      <c r="F149" s="11">
+      <c r="F149" s="10">
         <v>33223.285591444488</v>
       </c>
-      <c r="G149" s="11">
+      <c r="G149" s="10">
         <v>42040.456432892264</v>
       </c>
-      <c r="H149" s="11">
+      <c r="H149" s="10">
         <v>785094.83751861181</v>
       </c>
-      <c r="I149" s="11">
+      <c r="I149" s="10">
         <v>6681.1889219889481</v>
       </c>
-      <c r="J149" s="11">
+      <c r="J149" s="10">
         <v>396721.43544893642</v>
       </c>
-      <c r="K149" s="11">
+      <c r="K149" s="10">
         <v>84990.673364267743</v>
       </c>
     </row>
@@ -6276,34 +6276,34 @@
       <c r="A150" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="11">
         <v>337875.28921842965</v>
       </c>
-      <c r="C150" s="12">
+      <c r="C150" s="11">
         <v>275528.27024719241</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="11">
         <v>67340.985501897158</v>
       </c>
-      <c r="E150" s="12">
+      <c r="E150" s="11">
         <v>34115.998355715579</v>
       </c>
-      <c r="F150" s="12">
+      <c r="F150" s="11">
         <v>33625.926931724847</v>
       </c>
-      <c r="G150" s="12">
+      <c r="G150" s="11">
         <v>42504.406774813753</v>
       </c>
-      <c r="H150" s="12">
+      <c r="H150" s="11">
         <v>795952.2515092761</v>
       </c>
-      <c r="I150" s="12">
+      <c r="I150" s="11">
         <v>6742.5911102304717</v>
       </c>
-      <c r="J150" s="12">
+      <c r="J150" s="11">
         <v>402089.09334375965</v>
       </c>
-      <c r="K150" s="12">
+      <c r="K150" s="11">
         <v>85873.41210524489</v>
       </c>
     </row>
@@ -6311,34 +6311,34 @@
       <c r="A151" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="11">
         <v>337225.57497125369</v>
       </c>
-      <c r="C151" s="12">
+      <c r="C151" s="11">
         <v>273468.62742280104</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="11">
         <v>66611.813781556164</v>
       </c>
-      <c r="E151" s="12">
+      <c r="E151" s="11">
         <v>33745.935959561641</v>
       </c>
-      <c r="F151" s="12">
+      <c r="F151" s="11">
         <v>33281.164146949966</v>
       </c>
-      <c r="G151" s="12">
+      <c r="G151" s="11">
         <v>42083.354118190648</v>
       </c>
-      <c r="H151" s="12">
+      <c r="H151" s="11">
         <v>789560.68528217485</v>
       </c>
-      <c r="I151" s="12">
+      <c r="I151" s="11">
         <v>6671.9114396684308</v>
       </c>
-      <c r="J151" s="12">
+      <c r="J151" s="11">
         <v>398631.90678839578</v>
       </c>
-      <c r="K151" s="12">
+      <c r="K151" s="11">
         <v>85145.149754273691</v>
       </c>
     </row>
@@ -6346,34 +6346,34 @@
       <c r="A152" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B152" s="12">
+      <c r="B152" s="11">
         <v>343868.91019651369</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="11">
         <v>277588.84436226694</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="11">
         <v>67314.889940656096</v>
       </c>
-      <c r="E152" s="12">
+      <c r="E152" s="11">
         <v>34055.879904591282</v>
       </c>
-      <c r="F152" s="12">
+      <c r="F152" s="11">
         <v>33621.479204403346</v>
       </c>
-      <c r="G152" s="12">
+      <c r="G152" s="11">
         <v>42496.318158323673</v>
       </c>
-      <c r="H152" s="12">
+      <c r="H152" s="11">
         <v>799684.59308123263</v>
       </c>
-      <c r="I152" s="12">
+      <c r="I152" s="11">
         <v>6732.8961790882495</v>
       </c>
-      <c r="J152" s="12">
+      <c r="J152" s="11">
         <v>403517.4218645778</v>
       </c>
-      <c r="K152" s="12">
+      <c r="K152" s="11">
         <v>86243.596778199135</v>
       </c>
     </row>
@@ -6381,34 +6381,34 @@
       <c r="A153" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="11">
         <v>351612.85926771746</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="11">
         <v>282829.71035704436</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="11">
         <v>68210.550462098719</v>
       </c>
-      <c r="E153" s="12">
+      <c r="E153" s="11">
         <v>34417.07659076179</v>
       </c>
-      <c r="F153" s="12">
+      <c r="F153" s="11">
         <v>34027.554221530314</v>
       </c>
-      <c r="G153" s="12">
+      <c r="G153" s="11">
         <v>42960.083454712571</v>
       </c>
-      <c r="H153" s="12">
+      <c r="H153" s="11">
         <v>811684.06447863614</v>
       </c>
-      <c r="I153" s="12">
+      <c r="I153" s="11">
         <v>6801.2584356687121</v>
       </c>
-      <c r="J153" s="12">
+      <c r="J153" s="11">
         <v>409348.07335746643</v>
       </c>
-      <c r="K153" s="12">
+      <c r="K153" s="11">
         <v>87589.660714870945</v>
       </c>
     </row>
@@ -6416,34 +6416,34 @@
       <c r="A154" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B154" s="13">
+      <c r="B154" s="12">
         <v>356346.59620996367</v>
       </c>
-      <c r="C154" s="13">
+      <c r="C154" s="12">
         <v>286213.59064983658</v>
       </c>
-      <c r="D154" s="13">
+      <c r="D154" s="12">
         <v>68113.523112826384</v>
       </c>
-      <c r="E154" s="13">
+      <c r="E154" s="12">
         <v>34088.195397050891</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="12">
         <v>33905.082114577104</v>
       </c>
-      <c r="G154" s="13">
+      <c r="G154" s="12">
         <v>42557.102457984998</v>
       </c>
-      <c r="H154" s="13">
+      <c r="H154" s="12">
         <v>811015.14663597569</v>
       </c>
-      <c r="I154" s="13">
+      <c r="I154" s="12">
         <v>6708.5849391638667</v>
       </c>
-      <c r="J154" s="13">
+      <c r="J154" s="12">
         <v>409031.08927675855</v>
       </c>
-      <c r="K154" s="13">
+      <c r="K154" s="12">
         <v>87698.111971979364</v>
       </c>
     </row>
@@ -6451,34 +6451,34 @@
       <c r="A155" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B155" s="14">
+      <c r="B155" s="13">
         <v>364433.23076156422</v>
       </c>
-      <c r="C155" s="14">
+      <c r="C155" s="13">
         <v>292076.49048957537</v>
       </c>
-      <c r="D155" s="14">
+      <c r="D155" s="13">
         <v>69187.344851874426</v>
       </c>
-      <c r="E155" s="14">
+      <c r="E155" s="13">
         <v>34503.265274864556</v>
       </c>
-      <c r="F155" s="14">
+      <c r="F155" s="13">
         <v>34340.040400997525</v>
       </c>
-      <c r="G155" s="14">
+      <c r="G155" s="13">
         <v>43058.40681740993</v>
       </c>
-      <c r="H155" s="14">
+      <c r="H155" s="13">
         <v>824466.42171066604</v>
       </c>
-      <c r="I155" s="14">
+      <c r="I155" s="13">
         <v>6790.7041102789144</v>
       </c>
-      <c r="J155" s="14">
+      <c r="J155" s="13">
         <v>415496.96524052485</v>
       </c>
-      <c r="K155" s="14">
+      <c r="K155" s="13">
         <v>89258.84296932102</v>
       </c>
     </row>
@@ -6486,34 +6486,34 @@
       <c r="A156" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B156" s="14">
+      <c r="B156" s="13">
         <v>370997.76745346433</v>
       </c>
-      <c r="C156" s="14">
+      <c r="C156" s="13">
         <v>296822.02887873712</v>
       </c>
-      <c r="D156" s="14">
+      <c r="D156" s="13">
         <v>70104.172651745277</v>
       </c>
-      <c r="E156" s="14">
+      <c r="E156" s="13">
         <v>34850.857630827275</v>
       </c>
-      <c r="F156" s="14">
+      <c r="F156" s="13">
         <v>34666.704474101753</v>
       </c>
-      <c r="G156" s="14">
+      <c r="G156" s="13">
         <v>43458.700812448631</v>
       </c>
-      <c r="H156" s="14">
+      <c r="H156" s="13">
         <v>835801.81467219233</v>
       </c>
-      <c r="I156" s="14">
+      <c r="I156" s="13">
         <v>6865.6853087251129</v>
       </c>
-      <c r="J156" s="14">
+      <c r="J156" s="13">
         <v>420795.30226426432</v>
       </c>
-      <c r="K156" s="14">
+      <c r="K156" s="13">
         <v>90603.126171686992</v>
       </c>
     </row>
@@ -6521,34 +6521,34 @@
       <c r="A157" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B157" s="14">
+      <c r="B157" s="13">
         <v>375087.0800384258</v>
       </c>
-      <c r="C157" s="14">
+      <c r="C157" s="13">
         <v>299694.04218510143</v>
       </c>
-      <c r="D157" s="14">
+      <c r="D157" s="13">
         <v>70688.895514994219</v>
       </c>
-      <c r="E157" s="14">
+      <c r="E157" s="13">
         <v>35045.138230291232</v>
       </c>
-      <c r="F157" s="14">
+      <c r="F157" s="13">
         <v>34799.322848539668</v>
       </c>
-      <c r="G157" s="14">
+      <c r="G157" s="13">
         <v>43651.049664000682</v>
       </c>
-      <c r="H157" s="14">
+      <c r="H157" s="13">
         <v>842926.25868257671</v>
       </c>
-      <c r="I157" s="14">
+      <c r="I157" s="13">
         <v>6916.6381938645582</v>
       </c>
-      <c r="J157" s="14">
+      <c r="J157" s="13">
         <v>423873.97872225108</v>
       </c>
-      <c r="K157" s="14">
+      <c r="K157" s="13">
         <v>91502.879314637816</v>
       </c>
     </row>
@@ -6556,34 +6556,34 @@
       <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B158" s="14">
+      <c r="B158" s="13">
         <v>376944.07503512525</v>
       </c>
-      <c r="C158" s="14">
+      <c r="C158" s="13">
         <v>301214.27490737109</v>
       </c>
-      <c r="D158" s="14">
+      <c r="D158" s="13">
         <v>71289.992268229733</v>
       </c>
-      <c r="E158" s="14">
+      <c r="E158" s="13">
         <v>35277.099461795013</v>
       </c>
-      <c r="F158" s="14">
+      <c r="F158" s="13">
         <v>34824.078334938182</v>
       </c>
-      <c r="G158" s="14">
+      <c r="G158" s="13">
         <v>43807.876147341747</v>
       </c>
-      <c r="H158" s="14">
+      <c r="H158" s="13">
         <v>849351.38111331547</v>
       </c>
-      <c r="I158" s="14">
+      <c r="I158" s="13">
         <v>7001.6501604126634</v>
       </c>
-      <c r="J158" s="14">
+      <c r="J158" s="13">
         <v>426015.35089056415</v>
       </c>
-      <c r="K158" s="14">
+      <c r="K158" s="13">
         <v>92473.605248050255</v>
       </c>
     </row>
@@ -6591,34 +6591,34 @@
       <c r="A159" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B159" s="14">
+      <c r="B159" s="13">
         <v>378808.60313861712</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="13">
         <v>302398.36098346161</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D159" s="13">
         <v>71608.932552181563</v>
       </c>
-      <c r="E159" s="14">
+      <c r="E159" s="13">
         <v>35358.043399440176</v>
       </c>
-      <c r="F159" s="14">
+      <c r="F159" s="13">
         <v>34803.893033586362</v>
       </c>
-      <c r="G159" s="14">
+      <c r="G159" s="13">
         <v>43852.912359872746</v>
       </c>
-      <c r="H159" s="14">
+      <c r="H159" s="13">
         <v>853057.93437703955</v>
       </c>
-      <c r="I159" s="14">
+      <c r="I159" s="13">
         <v>7034.1206953139663</v>
       </c>
-      <c r="J159" s="14">
+      <c r="J159" s="13">
         <v>427380.958734182</v>
       </c>
-      <c r="K159" s="14">
+      <c r="K159" s="13">
         <v>92969.579318935648</v>
       </c>
     </row>
@@ -6626,34 +6626,34 @@
       <c r="A160" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B160" s="14">
+      <c r="B160" s="13">
         <v>380313.51110473316</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="13">
         <v>303276.51386380848</v>
       </c>
-      <c r="D160" s="14">
+      <c r="D160" s="13">
         <v>71877.138889578608</v>
       </c>
-      <c r="E160" s="14">
+      <c r="E160" s="13">
         <v>35419.758235839727</v>
       </c>
-      <c r="F160" s="14">
+      <c r="F160" s="13">
         <v>34765.345588362463</v>
       </c>
-      <c r="G160" s="14">
+      <c r="G160" s="13">
         <v>43884.074998268115</v>
       </c>
-      <c r="H160" s="14">
+      <c r="H160" s="13">
         <v>856162.82987202995</v>
       </c>
-      <c r="I160" s="14">
+      <c r="I160" s="13">
         <v>7060.6451679582615</v>
       </c>
-      <c r="J160" s="14">
+      <c r="J160" s="13">
         <v>428544.26263377548</v>
       </c>
-      <c r="K160" s="14">
+      <c r="K160" s="13">
         <v>93357.02069818748</v>
       </c>
     </row>
@@ -6661,34 +6661,34 @@
       <c r="A161" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B161" s="14">
+      <c r="B161" s="13">
         <v>381987.49572454847</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="13">
         <v>304269.95100953983</v>
       </c>
-      <c r="D161" s="14">
+      <c r="D161" s="13">
         <v>72194.401665543774</v>
       </c>
-      <c r="E161" s="14">
+      <c r="E161" s="13">
         <v>35511.273740958721</v>
       </c>
-      <c r="F161" s="14">
+      <c r="F161" s="13">
         <v>34756.402098081511</v>
       </c>
-      <c r="G161" s="14">
+      <c r="G161" s="13">
         <v>43961.979192620238</v>
       </c>
-      <c r="H161" s="14">
+      <c r="H161" s="13">
         <v>859854.56199448998</v>
       </c>
-      <c r="I161" s="14">
+      <c r="I161" s="13">
         <v>7091.0323468500292</v>
       </c>
-      <c r="J161" s="14">
+      <c r="J161" s="13">
         <v>430098.93970537826</v>
       </c>
-      <c r="K161" s="14">
+      <c r="K161" s="13">
         <v>93765.862251139726</v>
       </c>
     </row>
@@ -6696,34 +6696,34 @@
       <c r="A162" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B162" s="14">
+      <c r="B162" s="13">
         <v>383418.72078966611</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="13">
         <v>304910.04111533181</v>
       </c>
-      <c r="D162" s="14">
+      <c r="D162" s="13">
         <v>72536.981636105338</v>
       </c>
-      <c r="E162" s="14">
+      <c r="E162" s="13">
         <v>35631.739575423926</v>
       </c>
-      <c r="F162" s="14">
+      <c r="F162" s="13">
         <v>34781.733733828172</v>
       </c>
-      <c r="G162" s="14">
+      <c r="G162" s="13">
         <v>44103.596146714255</v>
       </c>
-      <c r="H162" s="14">
+      <c r="H162" s="13">
         <v>863708.75808149285</v>
       </c>
-      <c r="I162" s="14">
+      <c r="I162" s="13">
         <v>7120.5156450069626</v>
       </c>
-      <c r="J162" s="14">
+      <c r="J162" s="13">
         <v>432100.86359430646</v>
       </c>
-      <c r="K162" s="14">
+      <c r="K162" s="13">
         <v>94083.596822489984</v>
       </c>
     </row>
@@ -6731,34 +6731,34 @@
       <c r="A163" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B163" s="14">
+      <c r="B163" s="13">
         <v>385341.84624127939</v>
       </c>
-      <c r="C163" s="14">
+      <c r="C163" s="13">
         <v>306114.45418734429</v>
       </c>
-      <c r="D163" s="14">
+      <c r="D163" s="13">
         <v>72913.886690412706</v>
       </c>
-      <c r="E163" s="14">
+      <c r="E163" s="13">
         <v>35758.657160176575</v>
       </c>
-      <c r="F163" s="14">
+      <c r="F163" s="13">
         <v>34804.681546309446</v>
       </c>
-      <c r="G163" s="14">
+      <c r="G163" s="13">
         <v>44237.287355547203</v>
       </c>
-      <c r="H163" s="14">
+      <c r="H163" s="13">
         <v>868171.33143607096</v>
       </c>
-      <c r="I163" s="14">
+      <c r="I163" s="13">
         <v>7155.8136172245631</v>
       </c>
-      <c r="J163" s="14">
+      <c r="J163" s="13">
         <v>434125.16246923927</v>
       </c>
-      <c r="K163" s="14">
+      <c r="K163" s="13">
         <v>94517.958611645648</v>
       </c>
     </row>
@@ -6766,34 +6766,34 @@
       <c r="A164" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B164" s="14">
+      <c r="B164" s="13">
         <v>387154.20085086906</v>
       </c>
-      <c r="C164" s="14">
+      <c r="C164" s="13">
         <v>307265.43316742277</v>
       </c>
-      <c r="D164" s="14">
+      <c r="D164" s="13">
         <v>73265.249745466615</v>
       </c>
-      <c r="E164" s="14">
+      <c r="E164" s="13">
         <v>35873.919835523033</v>
       </c>
-      <c r="F164" s="14">
+      <c r="F164" s="13">
         <v>34813.831020176331</v>
       </c>
-      <c r="G164" s="14">
+      <c r="G164" s="13">
         <v>44358.926494913321</v>
       </c>
-      <c r="H164" s="14">
+      <c r="H164" s="13">
         <v>872388.39148255368</v>
       </c>
-      <c r="I164" s="14">
+      <c r="I164" s="13">
         <v>7188.6202076044829</v>
       </c>
-      <c r="J164" s="14">
+      <c r="J164" s="13">
         <v>436014.970831707</v>
       </c>
-      <c r="K164" s="14">
+      <c r="K164" s="13">
         <v>94909.651843651372</v>
       </c>
     </row>
@@ -6801,34 +6801,34 @@
       <c r="A165" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B165" s="14">
+      <c r="B165" s="13">
         <v>389438.64091769001</v>
       </c>
-      <c r="C165" s="14">
+      <c r="C165" s="13">
         <v>308825.653889023</v>
       </c>
-      <c r="D165" s="14">
+      <c r="D165" s="13">
         <v>73701.366203044265</v>
       </c>
-      <c r="E165" s="14">
+      <c r="E165" s="13">
         <v>36031.547894979034</v>
       </c>
-      <c r="F165" s="14">
+      <c r="F165" s="13">
         <v>34861.630644304307</v>
       </c>
-      <c r="G165" s="14">
+      <c r="G165" s="13">
         <v>44535.317445817374</v>
       </c>
-      <c r="H165" s="14">
+      <c r="H165" s="13">
         <v>877673.27781282936</v>
       </c>
-      <c r="I165" s="14">
+      <c r="I165" s="13">
         <v>7229.7577792102666</v>
       </c>
-      <c r="J165" s="14">
+      <c r="J165" s="13">
         <v>438426.73712199263</v>
       </c>
-      <c r="K165" s="14">
+      <c r="K165" s="13">
         <v>95401.566732842373</v>
       </c>
     </row>
@@ -6836,34 +6836,34 @@
       <c r="A166" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B166" s="14">
+      <c r="B166" s="13">
         <v>391627.85424155713</v>
       </c>
-      <c r="C166" s="14">
+      <c r="C166" s="13">
         <v>310418.51114371442</v>
       </c>
-      <c r="D166" s="14">
+      <c r="D166" s="13">
         <v>74114.735888992887</v>
       </c>
-      <c r="E166" s="14">
+      <c r="E166" s="13">
         <v>36181.763095244089</v>
       </c>
-      <c r="F166" s="14">
+      <c r="F166" s="13">
         <v>34896.870392313976</v>
       </c>
-      <c r="G166" s="14">
+      <c r="G166" s="13">
         <v>44713.395705718591</v>
       </c>
-      <c r="H166" s="14">
+      <c r="H166" s="13">
         <v>882938.81755165069</v>
       </c>
-      <c r="I166" s="14">
+      <c r="I166" s="13">
         <v>7269.0902986105411</v>
       </c>
-      <c r="J166" s="14">
+      <c r="J166" s="13">
         <v>440786.61745376932</v>
       </c>
-      <c r="K166" s="14">
+      <c r="K166" s="13">
         <v>95819.472457666998</v>
       </c>
     </row>
@@ -6871,34 +6871,34 @@
       <c r="A167" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B167" s="14">
+      <c r="B167" s="13">
         <v>393859.88196602953</v>
       </c>
-      <c r="C167" s="14">
+      <c r="C167" s="13">
         <v>311977.1502868649</v>
       </c>
-      <c r="D167" s="14">
+      <c r="D167" s="13">
         <v>74531.818459747345</v>
       </c>
-      <c r="E167" s="14">
+      <c r="E167" s="13">
         <v>36330.735253221843</v>
       </c>
-      <c r="F167" s="14">
+      <c r="F167" s="13">
         <v>34932.645598446165</v>
       </c>
-      <c r="G167" s="14">
+      <c r="G167" s="13">
         <v>44880.445140434451</v>
       </c>
-      <c r="H167" s="14">
+      <c r="H167" s="13">
         <v>888037.08128353499</v>
       </c>
-      <c r="I167" s="14">
+      <c r="I167" s="13">
         <v>7308.2282289844179</v>
       </c>
-      <c r="J167" s="14">
+      <c r="J167" s="13">
         <v>443094.14007395541</v>
       </c>
-      <c r="K167" s="14">
+      <c r="K167" s="13">
         <v>96281.677485631197</v>
       </c>
     </row>
@@ -6906,34 +6906,34 @@
       <c r="A168" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B168" s="14">
+      <c r="B168" s="13">
         <v>396123.85175460618</v>
       </c>
-      <c r="C168" s="14">
+      <c r="C168" s="13">
         <v>313566.36534365016</v>
       </c>
-      <c r="D168" s="14">
+      <c r="D168" s="13">
         <v>74950.41373525055</v>
       </c>
-      <c r="E168" s="14">
+      <c r="E168" s="13">
         <v>36480.194432731078</v>
       </c>
-      <c r="F168" s="14">
+      <c r="F168" s="13">
         <v>34967.634546361973</v>
       </c>
-      <c r="G168" s="14">
+      <c r="G168" s="13">
         <v>45047.075245194181</v>
       </c>
-      <c r="H168" s="14">
+      <c r="H168" s="13">
         <v>893134.81416484679</v>
       </c>
-      <c r="I168" s="14">
+      <c r="I168" s="13">
         <v>7347.3657097152545</v>
       </c>
-      <c r="J168" s="14">
+      <c r="J168" s="13">
         <v>445401.94981544331</v>
       </c>
-      <c r="K168" s="14">
+      <c r="K168" s="13">
         <v>96750.29349235275</v>
       </c>
     </row>
@@ -6941,34 +6941,34 @@
       <c r="A169" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B169" s="14">
+      <c r="B169" s="13">
         <v>398407.13526887097</v>
       </c>
-      <c r="C169" s="14">
+      <c r="C169" s="13">
         <v>315176.14193444198</v>
       </c>
-      <c r="D169" s="14">
+      <c r="D169" s="13">
         <v>75368.129055998987</v>
       </c>
-      <c r="E169" s="14">
+      <c r="E169" s="13">
         <v>36628.97043253819</v>
       </c>
-      <c r="F169" s="14">
+      <c r="F169" s="13">
         <v>35000.703935391146</v>
       </c>
-      <c r="G169" s="14">
+      <c r="G169" s="13">
         <v>45211.838682376176</v>
       </c>
-      <c r="H169" s="14">
+      <c r="H169" s="13">
         <v>898203.50629457401</v>
       </c>
-      <c r="I169" s="14">
+      <c r="I169" s="13">
         <v>7386.2679221476446</v>
       </c>
-      <c r="J169" s="14">
+      <c r="J169" s="13">
         <v>447695.80540865572</v>
       </c>
-      <c r="K169" s="14">
+      <c r="K169" s="13">
         <v>97222.226842413365</v>
       </c>
     </row>
@@ -6976,34 +6976,34 @@
       <c r="A170" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B170" s="14">
+      <c r="B170" s="13">
         <v>400660.12548547104</v>
       </c>
-      <c r="C170" s="14">
+      <c r="C170" s="13">
         <v>316783.30558041378</v>
       </c>
-      <c r="D170" s="14">
+      <c r="D170" s="13">
         <v>75772.199024400354</v>
       </c>
-      <c r="E170" s="14">
+      <c r="E170" s="13">
         <v>36770.991317840089</v>
       </c>
-      <c r="F170" s="14">
+      <c r="F170" s="13">
         <v>35017.101443469444</v>
       </c>
-      <c r="G170" s="14">
+      <c r="G170" s="13">
         <v>45364.36575242308</v>
       </c>
-      <c r="H170" s="14">
+      <c r="H170" s="13">
         <v>903095.21432003006</v>
       </c>
-      <c r="I170" s="14">
+      <c r="I170" s="13">
         <v>7423.7267749498351</v>
       </c>
-      <c r="J170" s="14">
+      <c r="J170" s="13">
         <v>449888.42517809715</v>
       </c>
-      <c r="K170" s="14">
+      <c r="K170" s="13">
         <v>97683.577769793133</v>
       </c>
     </row>
@@ -7011,34 +7011,34 @@
       <c r="A171" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B171" s="14">
+      <c r="B171" s="13">
         <v>402859.18350984564</v>
       </c>
-      <c r="C171" s="14">
+      <c r="C171" s="13">
         <v>318330.75424612162</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171" s="13">
         <v>76166.275878017288</v>
       </c>
-      <c r="E171" s="14">
+      <c r="E171" s="13">
         <v>36907.759682197808</v>
       </c>
-      <c r="F171" s="14">
+      <c r="F171" s="13">
         <v>35039.832730448819</v>
       </c>
-      <c r="G171" s="14">
+      <c r="G171" s="13">
         <v>45513.42615120297</v>
       </c>
-      <c r="H171" s="14">
+      <c r="H171" s="13">
         <v>907843.32740586379</v>
       </c>
-      <c r="I171" s="14">
+      <c r="I171" s="13">
         <v>7459.9987235186036</v>
       </c>
-      <c r="J171" s="14">
+      <c r="J171" s="13">
         <v>452029.14279734215</v>
       </c>
-      <c r="K171" s="14">
+      <c r="K171" s="13">
         <v>98132.953580977046</v>
       </c>
     </row>
@@ -7046,34 +7046,34 @@
       <c r="A172" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B172" s="14">
+      <c r="B172" s="13">
         <v>404974.98860276141</v>
       </c>
-      <c r="C172" s="14">
+      <c r="C172" s="13">
         <v>319811.36157296674</v>
       </c>
-      <c r="D172" s="14">
+      <c r="D172" s="13">
         <v>76541.436273895568</v>
       </c>
-      <c r="E172" s="14">
+      <c r="E172" s="13">
         <v>37035.072387244349</v>
       </c>
-      <c r="F172" s="14">
+      <c r="F172" s="13">
         <v>35055.935176355437</v>
       </c>
-      <c r="G172" s="14">
+      <c r="G172" s="13">
         <v>45650.958296378609</v>
       </c>
-      <c r="H172" s="14">
+      <c r="H172" s="13">
         <v>912345.70417061041</v>
       </c>
-      <c r="I172" s="14">
+      <c r="I172" s="13">
         <v>7494.2523884395641</v>
       </c>
-      <c r="J172" s="14">
+      <c r="J172" s="13">
         <v>454053.51140696765</v>
       </c>
-      <c r="K172" s="14">
+      <c r="K172" s="13">
         <v>98561.408280649193</v>
       </c>
     </row>
@@ -7081,34 +7081,34 @@
       <c r="A173" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B173" s="14">
+      <c r="B173" s="13">
         <v>407063.62230307795</v>
       </c>
-      <c r="C173" s="14">
+      <c r="C173" s="13">
         <v>321269.4632193998</v>
       </c>
-      <c r="D173" s="14">
+      <c r="D173" s="13">
         <v>76908.286552911988</v>
       </c>
-      <c r="E173" s="14">
+      <c r="E173" s="13">
         <v>37158.074971249756</v>
       </c>
-      <c r="F173" s="14">
+      <c r="F173" s="13">
         <v>35070.304977567721</v>
       </c>
-      <c r="G173" s="14">
+      <c r="G173" s="13">
         <v>45783.309610176722</v>
       </c>
-      <c r="H173" s="14">
+      <c r="H173" s="13">
         <v>916728.76442953199</v>
       </c>
-      <c r="I173" s="14">
+      <c r="I173" s="13">
         <v>7527.5268975467689</v>
       </c>
-      <c r="J173" s="14">
+      <c r="J173" s="13">
         <v>456024.50015394198</v>
       </c>
-      <c r="K173" s="14">
+      <c r="K173" s="13">
         <v>98982.612514051405</v>
       </c>
     </row>
@@ -7116,34 +7116,34 @@
       <c r="A174" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B174" s="14">
+      <c r="B174" s="13">
         <v>409118.05642688181</v>
       </c>
-      <c r="C174" s="14">
+      <c r="C174" s="13">
         <v>322687.47638680896</v>
       </c>
-      <c r="D174" s="14">
+      <c r="D174" s="13">
         <v>77263.586469825284</v>
       </c>
-      <c r="E174" s="14">
+      <c r="E174" s="13">
         <v>37275.019756390306</v>
       </c>
-      <c r="F174" s="14">
+      <c r="F174" s="13">
         <v>35087.087959789431</v>
       </c>
-      <c r="G174" s="14">
+      <c r="G174" s="13">
         <v>45907.537947348406</v>
       </c>
-      <c r="H174" s="14">
+      <c r="H174" s="13">
         <v>920881.55909322354</v>
       </c>
-      <c r="I174" s="14">
+      <c r="I174" s="13">
         <v>7558.8949788281225</v>
       </c>
-      <c r="J174" s="14">
+      <c r="J174" s="13">
         <v>457913.32468891481</v>
       </c>
-      <c r="K174" s="14">
+      <c r="K174" s="13">
         <v>99403.742540270017</v>
       </c>
     </row>
@@ -7151,34 +7151,34 @@
       <c r="A175" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B175" s="14">
+      <c r="B175" s="13">
         <v>411173.27202971082</v>
       </c>
-      <c r="C175" s="14">
+      <c r="C175" s="13">
         <v>324121.82265619823</v>
       </c>
-      <c r="D175" s="14">
+      <c r="D175" s="13">
         <v>77618.525480141281</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175" s="13">
         <v>37391.728971003933</v>
       </c>
-      <c r="F175" s="14">
+      <c r="F175" s="13">
         <v>35097.829054071619</v>
       </c>
-      <c r="G175" s="14">
+      <c r="G175" s="13">
         <v>46032.70261068645</v>
       </c>
-      <c r="H175" s="14">
+      <c r="H175" s="13">
         <v>925111.06643251423</v>
       </c>
-      <c r="I175" s="14">
+      <c r="I175" s="13">
         <v>7590.9152253777174</v>
       </c>
-      <c r="J175" s="14">
+      <c r="J175" s="13">
         <v>459809.22654134675</v>
       </c>
-      <c r="K175" s="14">
+      <c r="K175" s="13">
         <v>99811.945210381236</v>
       </c>
     </row>
@@ -7186,34 +7186,34 @@
       <c r="A176" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B176" s="14">
+      <c r="B176" s="13">
         <v>413325.263710297</v>
       </c>
-      <c r="C176" s="14">
+      <c r="C176" s="13">
         <v>325636.19898664736</v>
       </c>
-      <c r="D176" s="14">
+      <c r="D176" s="13">
         <v>77989.322177806825</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E176" s="13">
         <v>37515.849138205296</v>
       </c>
-      <c r="F176" s="14">
+      <c r="F176" s="13">
         <v>35115.530189376848</v>
       </c>
-      <c r="G176" s="14">
+      <c r="G176" s="13">
         <v>46167.433531482195</v>
       </c>
-      <c r="H176" s="14">
+      <c r="H176" s="13">
         <v>929538.24940115795</v>
       </c>
-      <c r="I176" s="14">
+      <c r="I176" s="13">
         <v>7624.5643014652733</v>
       </c>
-      <c r="J176" s="14">
+      <c r="J176" s="13">
         <v>461798.76985883102</v>
       </c>
-      <c r="K176" s="14">
+      <c r="K176" s="13">
         <v>100239.43952446266</v>
       </c>
     </row>
@@ -7221,34 +7221,34 @@
       <c r="A177" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B177" s="14">
+      <c r="B177" s="13">
         <v>415512.67907994211</v>
       </c>
-      <c r="C177" s="14">
+      <c r="C177" s="13">
         <v>327182.20463114127</v>
       </c>
-      <c r="D177" s="14">
+      <c r="D177" s="13">
         <v>78364.388082803227</v>
       </c>
-      <c r="E177" s="14">
+      <c r="E177" s="13">
         <v>37641.786632943782</v>
       </c>
-      <c r="F177" s="14">
+      <c r="F177" s="13">
         <v>35134.920844826862</v>
       </c>
-      <c r="G177" s="14">
+      <c r="G177" s="13">
         <v>46304.84069417353</v>
       </c>
-      <c r="H177" s="14">
+      <c r="H177" s="13">
         <v>934024.98863366502</v>
       </c>
-      <c r="I177" s="14">
+      <c r="I177" s="13">
         <v>7658.708336543732</v>
       </c>
-      <c r="J177" s="14">
+      <c r="J177" s="13">
         <v>463813.26295364724</v>
       </c>
-      <c r="K177" s="14">
+      <c r="K177" s="13">
         <v>100671.31368954692</v>
       </c>
     </row>
@@ -7256,34 +7256,34 @@
       <c r="A178" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="14">
+      <c r="B178" s="13">
         <v>417753.91208229976</v>
       </c>
-      <c r="C178" s="14">
+      <c r="C178" s="13">
         <v>328788.68960643467</v>
       </c>
-      <c r="D178" s="14">
+      <c r="D178" s="13">
         <v>78742.323948940189</v>
       </c>
-      <c r="E178" s="14">
+      <c r="E178" s="13">
         <v>37768.563163528903</v>
       </c>
-      <c r="F178" s="14">
+      <c r="F178" s="13">
         <v>35156.047376801165</v>
       </c>
-      <c r="G178" s="14">
+      <c r="G178" s="13">
         <v>46445.828957294674</v>
       </c>
-      <c r="H178" s="14">
+      <c r="H178" s="13">
         <v>938568.22313670069</v>
       </c>
-      <c r="I178" s="14">
+      <c r="I178" s="13">
         <v>7693.1122333384919</v>
       </c>
-      <c r="J178" s="14">
+      <c r="J178" s="13">
         <v>465850.665570841</v>
       </c>
-      <c r="K178" s="14">
+      <c r="K178" s="13">
         <v>101104.93879312128</v>
       </c>
     </row>
@@ -7291,34 +7291,34 @@
       <c r="A179" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B179" s="14">
+      <c r="B179" s="13">
         <v>420043.76602658891</v>
       </c>
-      <c r="C179" s="14">
+      <c r="C179" s="13">
         <v>330417.02056826698</v>
       </c>
-      <c r="D179" s="14">
+      <c r="D179" s="13">
         <v>79133.818065259286</v>
       </c>
-      <c r="E179" s="14">
+      <c r="E179" s="13">
         <v>37902.027358228181</v>
       </c>
-      <c r="F179" s="14">
+      <c r="F179" s="13">
         <v>35182.029824444428</v>
       </c>
-      <c r="G179" s="14">
+      <c r="G179" s="13">
         <v>46592.526970137194</v>
       </c>
-      <c r="H179" s="14">
+      <c r="H179" s="13">
         <v>943262.67833862628</v>
       </c>
-      <c r="I179" s="14">
+      <c r="I179" s="13">
         <v>7729.0557121182037</v>
       </c>
-      <c r="J179" s="14">
+      <c r="J179" s="13">
         <v>467959.18302346382</v>
       </c>
-      <c r="K179" s="14">
+      <c r="K179" s="13">
         <v>101556.02173809867</v>
       </c>
     </row>
@@ -7326,34 +7326,34 @@
       <c r="A180" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B180" s="14">
+      <c r="B180" s="13">
         <v>422188.09578060516</v>
       </c>
-      <c r="C180" s="14">
+      <c r="C180" s="13">
         <v>331928.90325189085</v>
       </c>
-      <c r="D180" s="14">
+      <c r="D180" s="13">
         <v>79497.4404609263</v>
       </c>
-      <c r="E180" s="14">
+      <c r="E180" s="13">
         <v>38022.041709258861</v>
       </c>
-      <c r="F180" s="14">
+      <c r="F180" s="13">
         <v>35195.155503564987</v>
       </c>
-      <c r="G180" s="14">
+      <c r="G180" s="13">
         <v>46722.291827254645</v>
       </c>
-      <c r="H180" s="14">
+      <c r="H180" s="13">
         <v>947628.12572721159</v>
       </c>
-      <c r="I180" s="14">
+      <c r="I180" s="13">
         <v>7762.3944378854294</v>
       </c>
-      <c r="J180" s="14">
+      <c r="J180" s="13">
         <v>469900.10588093009</v>
       </c>
-      <c r="K180" s="14">
+      <c r="K180" s="13">
         <v>101970.57364039341</v>
       </c>
     </row>
@@ -7361,34 +7361,34 @@
       <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B181" s="14">
+      <c r="B181" s="13">
         <v>424515.71368846222</v>
       </c>
-      <c r="C181" s="14">
+      <c r="C181" s="13">
         <v>333582.92675164179</v>
       </c>
-      <c r="D181" s="14">
+      <c r="D181" s="13">
         <v>79895.122947240539</v>
       </c>
-      <c r="E181" s="14">
+      <c r="E181" s="13">
         <v>38158.249639783389</v>
       </c>
-      <c r="F181" s="14">
+      <c r="F181" s="13">
         <v>35222.905101598939</v>
       </c>
-      <c r="G181" s="14">
+      <c r="G181" s="13">
         <v>46871.557453590191</v>
       </c>
-      <c r="H181" s="14">
+      <c r="H181" s="13">
         <v>952402.79391453997</v>
       </c>
-      <c r="I181" s="14">
+      <c r="I181" s="13">
         <v>7799.1765475254278</v>
       </c>
-      <c r="J181" s="14">
+      <c r="J181" s="13">
         <v>472039.59357379534</v>
       </c>
-      <c r="K181" s="14">
+      <c r="K181" s="13">
         <v>102428.05564522877</v>
       </c>
     </row>
@@ -7396,34 +7396,34 @@
       <c r="A182" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B182" s="14">
+      <c r="B182" s="13">
         <v>426807.57857497339</v>
       </c>
-      <c r="C182" s="14">
+      <c r="C182" s="13">
         <v>335219.44701328204</v>
       </c>
-      <c r="D182" s="14">
+      <c r="D182" s="13">
         <v>80285.79319704615</v>
       </c>
-      <c r="E182" s="14">
+      <c r="E182" s="13">
         <v>38292.132369060193</v>
       </c>
-      <c r="F182" s="14">
+      <c r="F182" s="13">
         <v>35247.904093772173</v>
       </c>
-      <c r="G182" s="14">
+      <c r="G182" s="13">
         <v>47018.110997423239</v>
       </c>
-      <c r="H182" s="14">
+      <c r="H182" s="13">
         <v>957116.63365574996</v>
       </c>
-      <c r="I182" s="14">
+      <c r="I182" s="13">
         <v>7835.7127070796505</v>
       </c>
-      <c r="J182" s="14">
+      <c r="J182" s="13">
         <v>474142.16309859214</v>
       </c>
-      <c r="K182" s="14">
+      <c r="K182" s="13">
         <v>102872.37295779832</v>
       </c>
     </row>
@@ -7431,34 +7431,34 @@
       <c r="A183" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B183" s="14">
+      <c r="B183" s="13">
         <v>429135.09879620641</v>
       </c>
-      <c r="C183" s="14">
+      <c r="C183" s="13">
         <v>336864.38596750674</v>
       </c>
-      <c r="D183" s="14">
+      <c r="D183" s="13">
         <v>80682.469656848902</v>
       </c>
-      <c r="E183" s="14">
+      <c r="E183" s="13">
         <v>38427.198326068479</v>
       </c>
-      <c r="F183" s="14">
+      <c r="F183" s="13">
         <v>35273.92678949095</v>
       </c>
-      <c r="G183" s="14">
+      <c r="G183" s="13">
         <v>47164.953837851914</v>
       </c>
-      <c r="H183" s="14">
+      <c r="H183" s="13">
         <v>961877.93556768994</v>
       </c>
-      <c r="I183" s="14">
+      <c r="I183" s="13">
         <v>7872.5027206498717</v>
       </c>
-      <c r="J183" s="14">
+      <c r="J183" s="13">
         <v>476267.20053174085</v>
       </c>
-      <c r="K183" s="14">
+      <c r="K183" s="13">
         <v>103328.39573556304</v>
       </c>
     </row>
@@ -7466,34 +7466,34 @@
       <c r="A184" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B184" s="14">
+      <c r="B184" s="13">
         <v>431506.65847282938</v>
       </c>
-      <c r="C184" s="14">
+      <c r="C184" s="13">
         <v>338536.88220763078</v>
       </c>
-      <c r="D184" s="14">
+      <c r="D184" s="13">
         <v>81086.898999084471</v>
       </c>
-      <c r="E184" s="14">
+      <c r="E184" s="13">
         <v>38565.401986626654</v>
       </c>
-      <c r="F184" s="14">
+      <c r="F184" s="13">
         <v>35302.538422477839</v>
       </c>
-      <c r="G184" s="14">
+      <c r="G184" s="13">
         <v>47315.028786783747</v>
       </c>
-      <c r="H184" s="14">
+      <c r="H184" s="13">
         <v>966727.06787426199</v>
       </c>
-      <c r="I184" s="14">
+      <c r="I184" s="13">
         <v>7910.0380679111122</v>
       </c>
-      <c r="J184" s="14">
+      <c r="J184" s="13">
         <v>478432.29514065624</v>
       </c>
-      <c r="K184" s="14">
+      <c r="K184" s="13">
         <v>103794.94642368739</v>
       </c>
     </row>
@@ -7501,34 +7501,34 @@
       <c r="A185" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B185" s="14">
+      <c r="B185" s="13">
         <v>433896.3293126499</v>
       </c>
-      <c r="C185" s="14">
+      <c r="C185" s="13">
         <v>340216.57146086451</v>
       </c>
-      <c r="D185" s="14">
+      <c r="D185" s="13">
         <v>81494.20415085151</v>
       </c>
-      <c r="E185" s="14">
+      <c r="E185" s="13">
         <v>38704.417584064366</v>
       </c>
-      <c r="F185" s="14">
+      <c r="F185" s="13">
         <v>35331.598895023009</v>
       </c>
-      <c r="G185" s="14">
+      <c r="G185" s="13">
         <v>47465.480116497216</v>
       </c>
-      <c r="H185" s="14">
+      <c r="H185" s="13">
         <v>971605.88796287205</v>
       </c>
-      <c r="I185" s="14">
+      <c r="I185" s="13">
         <v>7947.842771477417</v>
       </c>
-      <c r="J185" s="14">
+      <c r="J185" s="13">
         <v>480608.64515478851</v>
       </c>
-      <c r="K185" s="14">
+      <c r="K185" s="13">
         <v>104265.77646076509</v>
       </c>
     </row>
@@ -7536,34 +7536,34 @@
       <c r="A186" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B186" s="14">
+      <c r="B186" s="13">
         <v>436216.75395027769</v>
       </c>
-      <c r="C186" s="14">
+      <c r="C186" s="13">
         <v>341828.67327081959</v>
       </c>
-      <c r="D186" s="14">
+      <c r="D186" s="13">
         <v>81895.831166150921</v>
       </c>
-      <c r="E186" s="14">
+      <c r="E186" s="13">
         <v>38840.931586017279</v>
       </c>
-      <c r="F186" s="14">
+      <c r="F186" s="13">
         <v>35356.326773612367</v>
       </c>
-      <c r="G186" s="14">
+      <c r="G186" s="13">
         <v>47611.652962563749</v>
       </c>
-      <c r="H186" s="14">
+      <c r="H186" s="13">
         <v>976418.99067046458</v>
       </c>
-      <c r="I186" s="14">
+      <c r="I186" s="13">
         <v>7985.3192421691556</v>
       </c>
-      <c r="J186" s="14">
+      <c r="J186" s="13">
         <v>482744.97803580144</v>
       </c>
-      <c r="K186" s="14">
+      <c r="K186" s="13">
         <v>104728.60483225808</v>
       </c>
     </row>
@@ -7571,34 +7571,34 @@
       <c r="A187" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B187" s="14">
+      <c r="B187" s="13">
         <v>438623.39443500404</v>
       </c>
-      <c r="C187" s="14">
+      <c r="C187" s="13">
         <v>343510.22999573115</v>
       </c>
-      <c r="D187" s="14">
+      <c r="D187" s="13">
         <v>82302.144265984913</v>
       </c>
-      <c r="E187" s="14">
+      <c r="E187" s="13">
         <v>38978.086799439225</v>
       </c>
-      <c r="F187" s="14">
+      <c r="F187" s="13">
         <v>35383.839770951672</v>
       </c>
-      <c r="G187" s="14">
+      <c r="G187" s="13">
         <v>47758.82723266675</v>
       </c>
-      <c r="H187" s="14">
+      <c r="H187" s="13">
         <v>981274.14568130125</v>
       </c>
-      <c r="I187" s="14">
+      <c r="I187" s="13">
         <v>8022.9109522222816</v>
       </c>
-      <c r="J187" s="14">
+      <c r="J187" s="13">
         <v>484904.47343039687</v>
       </c>
-      <c r="K187" s="14">
+      <c r="K187" s="13">
         <v>105199.91730796602</v>
       </c>
     </row>
@@ -7606,34 +7606,34 @@
       <c r="A188" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B188" s="14">
+      <c r="B188" s="13">
         <v>441046.52043471753</v>
       </c>
-      <c r="C188" s="14">
+      <c r="C188" s="13">
         <v>345200.28977494605</v>
       </c>
-      <c r="D188" s="14">
+      <c r="D188" s="13">
         <v>82707.901821602311</v>
       </c>
-      <c r="E188" s="14">
+      <c r="E188" s="13">
         <v>39114.144395548596</v>
       </c>
-      <c r="F188" s="14">
+      <c r="F188" s="13">
         <v>35410.79629185683</v>
       </c>
-      <c r="G188" s="14">
+      <c r="G188" s="13">
         <v>47904.279924940245</v>
       </c>
-      <c r="H188" s="14">
+      <c r="H188" s="13">
         <v>986115.44035545294</v>
       </c>
-      <c r="I188" s="14">
+      <c r="I188" s="13">
         <v>8060.3434136017113</v>
       </c>
-      <c r="J188" s="14">
+      <c r="J188" s="13">
         <v>487055.40082536126</v>
       </c>
-      <c r="K188" s="14">
+      <c r="K188" s="13">
         <v>105671.6716043427</v>
       </c>
     </row>
@@ -7641,34 +7641,34 @@
       <c r="A189" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B189" s="14">
+      <c r="B189" s="13">
         <v>443518.99128325918</v>
       </c>
-      <c r="C189" s="14">
+      <c r="C189" s="13">
         <v>346924.58376435697</v>
       </c>
-      <c r="D189" s="14">
+      <c r="D189" s="13">
         <v>83119.26911635189</v>
       </c>
-      <c r="E189" s="14">
+      <c r="E189" s="13">
         <v>39252.023437206706</v>
       </c>
-      <c r="F189" s="14">
+      <c r="F189" s="13">
         <v>35439.84463131438</v>
       </c>
-      <c r="G189" s="14">
+      <c r="G189" s="13">
         <v>48051.587394660295</v>
       </c>
-      <c r="H189" s="14">
+      <c r="H189" s="13">
         <v>991016.38319495367</v>
       </c>
-      <c r="I189" s="14">
+      <c r="I189" s="13">
         <v>8098.2176038192583</v>
       </c>
-      <c r="J189" s="14">
+      <c r="J189" s="13">
         <v>489234.08137555677</v>
       </c>
-      <c r="K189" s="14">
+      <c r="K189" s="13">
         <v>106151.74740086638</v>
       </c>
     </row>
@@ -7676,34 +7676,34 @@
       <c r="A190" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B190" s="14">
+      <c r="B190" s="13">
         <v>446062.78899008728</v>
       </c>
-      <c r="C190" s="14">
+      <c r="C190" s="13">
         <v>348700.27744184743</v>
       </c>
-      <c r="D190" s="14">
+      <c r="D190" s="13">
         <v>83540.35869759359</v>
       </c>
-      <c r="E190" s="14">
+      <c r="E190" s="13">
         <v>39393.658193893665</v>
       </c>
-      <c r="F190" s="14">
+      <c r="F190" s="13">
         <v>35472.717853371862</v>
       </c>
-      <c r="G190" s="14">
+      <c r="G190" s="13">
         <v>48203.114558447887</v>
       </c>
-      <c r="H190" s="14">
+      <c r="H190" s="13">
         <v>996026.00723393937</v>
       </c>
-      <c r="I190" s="14">
+      <c r="I190" s="13">
         <v>8136.9339013933586</v>
       </c>
-      <c r="J190" s="14">
+      <c r="J190" s="13">
         <v>491464.68764459481</v>
       </c>
-      <c r="K190" s="14">
+      <c r="K190" s="13">
         <v>106645.39045590618</v>
       </c>
     </row>
@@ -7711,34 +7711,34 @@
       <c r="A191" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B191" s="14">
+      <c r="B191" s="13">
         <v>448636.52660381293</v>
       </c>
-      <c r="C191" s="14">
+      <c r="C191" s="13">
         <v>350494.9866688227</v>
       </c>
-      <c r="D191" s="14">
+      <c r="D191" s="13">
         <v>83963.411357937293</v>
       </c>
-      <c r="E191" s="14">
+      <c r="E191" s="13">
         <v>39535.381582170041</v>
       </c>
-      <c r="F191" s="14">
+      <c r="F191" s="13">
         <v>35506.100293457101</v>
       </c>
-      <c r="G191" s="14">
+      <c r="G191" s="13">
         <v>48354.371133032029</v>
       </c>
-      <c r="H191" s="14">
+      <c r="H191" s="13">
         <v>1001051.7999543574</v>
       </c>
-      <c r="I191" s="14">
+      <c r="I191" s="13">
         <v>8175.7362154453804</v>
       </c>
-      <c r="J191" s="14">
+      <c r="J191" s="13">
         <v>493701.53687396098</v>
       </c>
-      <c r="K191" s="14">
+      <c r="K191" s="13">
         <v>107142.68931700503</v>
       </c>
     </row>
@@ -7746,69 +7746,69 @@
       <c r="A192" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B192" s="14">
+      <c r="B192" s="13">
         <v>451231.66885862278</v>
       </c>
-      <c r="C192" s="14">
+      <c r="C192" s="13">
         <v>352302.0564448543</v>
       </c>
-      <c r="D192" s="14">
+      <c r="D192" s="13">
         <v>84386.833084276441</v>
       </c>
-      <c r="E192" s="14">
+      <c r="E192" s="13">
         <v>39676.446556629184</v>
       </c>
-      <c r="F192" s="14">
+      <c r="F192" s="13">
         <v>35539.326923100161</v>
       </c>
-      <c r="G192" s="14">
+      <c r="G192" s="13">
         <v>48504.444780186939</v>
       </c>
-      <c r="H192" s="14">
+      <c r="H192" s="13">
         <v>1006074.7573601597</v>
       </c>
-      <c r="I192" s="14">
+      <c r="I192" s="13">
         <v>8214.4694739484985</v>
       </c>
-      <c r="J192" s="14">
+      <c r="J192" s="13">
         <v>495935.27155334718</v>
       </c>
-      <c r="K192" s="14">
+      <c r="K192" s="13">
         <v>107641.61265689925</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B193" s="15">
+      <c r="B193" s="14">
         <v>453853.74931895459</v>
       </c>
-      <c r="C193" s="15">
+      <c r="C193" s="14">
         <v>354125.82614544424</v>
       </c>
-      <c r="D193" s="15">
+      <c r="D193" s="14">
         <v>84811.664089805243</v>
       </c>
-      <c r="E193" s="15">
+      <c r="E193" s="14">
         <v>39817.347233189328</v>
       </c>
-      <c r="F193" s="15">
+      <c r="F193" s="14">
         <v>35572.848429249148</v>
       </c>
-      <c r="G193" s="15">
+      <c r="G193" s="14">
         <v>48653.941498373737</v>
       </c>
-      <c r="H193" s="15">
+      <c r="H193" s="14">
         <v>1011107.2831995034</v>
       </c>
-      <c r="I193" s="15">
+      <c r="I193" s="14">
         <v>8253.2351495702806</v>
       </c>
-      <c r="J193" s="15">
+      <c r="J193" s="14">
         <v>498172.02703454584</v>
       </c>
-      <c r="K193" s="15">
+      <c r="K193" s="14">
         <v>108143.49092855275</v>
       </c>
     </row>
@@ -7823,8 +7823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="J162" sqref="J162:J189"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21080,8 +21080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="K191" sqref="K191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27903,6 +27903,9 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A190" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="B190">
         <v>2691.9080790383123</v>
       </c>
@@ -27935,6 +27938,9 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A191" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="B191">
         <v>2702.9177407059442</v>
       </c>
@@ -27967,6 +27973,9 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A192" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="B192">
         <v>2714.145836135946</v>
       </c>
@@ -27998,7 +28007,10 @@
         <v>639.30555258009258</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A193" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="B193">
         <v>2725.4627464847499</v>
       </c>
@@ -28031,6 +28043,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -28040,37 +28053,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="T163" sqref="T163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
@@ -42649,6 +42662,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072F9387A9CEAC24DA659C20634E92B53" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9625e5ca472deb5945f7e45b29a5b4b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ce1adc9-595d-4b6e-94c7-d592be107ef0" xmlns:ns3="d66cf783-2e90-4651-8632-adfaa1cef5ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd5e1b0a1fe90b62e38e6b0ce72bb6f5" ns2:_="" ns3:_="">
     <xsd:import namespace="3ce1adc9-595d-4b6e-94c7-d592be107ef0"/>
@@ -42871,12 +42890,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -42887,6 +42900,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8B466CC-C090-4ABB-BC6E-0F336D89DE91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8200A94-B655-4D25-9B59-87A86115EB28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42905,15 +42927,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8B466CC-C090-4ABB-BC6E-0F336D89DE91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{725CB610-DAAF-4DA6-A9DC-A0218E9DFBAF}">
   <ds:schemaRefs>
